--- a/EC/Train Runs and Enforcements 2016-06-20.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1960,7 +1960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2222,6 +2222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2683,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM164"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,6 +2739,10 @@
       <c r="N1" s="104"/>
       <c r="O1" s="104"/>
       <c r="P1" s="104"/>
+      <c r="S1" s="107">
+        <f>AVERAGE(S3:S99989)</f>
+        <v>0.96009389671361489</v>
+      </c>
     </row>
     <row r="2" spans="1:91" s="11" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -17314,7 +17319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K67" sqref="K67:M68"/>
     </sheetView>
   </sheetViews>
